--- a/PM paperwork/Weekly Progress logs/Schedule_Draft.xlsx
+++ b/PM paperwork/Weekly Progress logs/Schedule_Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blond\OneDrive\Documents\GitHub\Tutor-Student_CheckIn\PM paperwork\Weekly Progress logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E600774F-7666-4733-84BA-7A23261B2F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E76877-E71C-4786-B5DA-481AE53D234B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="3960" windowWidth="21600" windowHeight="11835" xr2:uid="{FA54543A-D0CD-4622-A5BC-417E48B5F9B1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Week #</t>
   </si>
@@ -60,19 +60,87 @@
 Allocate resources</t>
   </si>
   <si>
-    <t>Web/Android Sign-up dev
+    <t>End of Sprint 1</t>
+  </si>
+  <si>
+    <t>Research Day</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>System Requirement Documents and User Story
+Progress of App
+PMP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sprint 1 Start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Web/Android Sign-up dev
 MySQL Tables
-Finalize HLD and schedule</t>
-  </si>
-  <si>
-    <t>Assignment/back log</t>
-  </si>
-  <si>
-    <t>System Requirement Documents and User Story
-Progress of App</t>
-  </si>
-  <si>
-    <t>End of Sprint 1</t>
+Finalize HLD and schedule
+Project Management Plan (PMP)</t>
+    </r>
+  </si>
+  <si>
+    <t>System Design Document (SDD)
+User Stories (USs)Student/Tutor sign in and Check-in system
+Present USs to Wang</t>
+  </si>
+  <si>
+    <t>Uss Baseline
+Draft of SDD &amp; TP
+Present of USs/SDD/TP
+Test Plan
+Admin on mobile
+Admin functions on web</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System Design Document (SDD)
+User Stories (USs)
+Student/Tutor sign in and Check-in system
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wang Requirements</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Uss Baseline
+Draft of SDD &amp; TP
+Present of USs/SDD/TP
+Test Plan
+Admin on mobile
+Admin functions on web
+Analytics and flag functions
+</t>
   </si>
 </sst>
 </file>
@@ -602,7 +670,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -654,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -665,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>3</v>
       </c>
@@ -676,28 +744,36 @@
         <v>43873</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>43880</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>5</v>
       </c>
       <c r="C9" s="9">
         <v>43887</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -728,7 +804,7 @@
         <v>43908</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="19"/>
     </row>
@@ -789,8 +865,12 @@
       <c r="C18" s="1">
         <v>43950</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="8">

--- a/PM paperwork/Weekly Progress logs/Schedule_Draft.xlsx
+++ b/PM paperwork/Weekly Progress logs/Schedule_Draft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blond\OneDrive\Documents\GitHub\Tutor-Student_CheckIn\PM paperwork\Weekly Progress logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\Tutor-Student_CheckIn\PM paperwork\Weekly Progress logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E76877-E71C-4786-B5DA-481AE53D234B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F63C843-002B-49E8-9A5E-AF36582667A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="3960" windowWidth="21600" windowHeight="11835" xr2:uid="{FA54543A-D0CD-4622-A5BC-417E48B5F9B1}"/>
+    <workbookView xWindow="-15630" yWindow="12645" windowWidth="21600" windowHeight="11835" xr2:uid="{FA54543A-D0CD-4622-A5BC-417E48B5F9B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Week #</t>
   </si>
@@ -58,9 +58,6 @@
   <si>
     <t>Project Kick-off
 Allocate resources</t>
-  </si>
-  <si>
-    <t>End of Sprint 1</t>
   </si>
   <si>
     <t>Research Day</t>
@@ -133,14 +130,82 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Uss Baseline
+    <t>End of Sprint 1
+Core Functionality/ Program</t>
+  </si>
+  <si>
+    <t>Uss Baseline
 Draft of SDD &amp; TP
 Present of USs/SDD/TP
 Test Plan
 Admin on mobile
 Admin functions on web
 Analytics and flag functions
+Check in system continued…</t>
+  </si>
+  <si>
+    <t>Check in system continued…</t>
+  </si>
+  <si>
+    <t>Finalize SDD &amp; TP
+Check in system continued…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Analytics
+Live Testing
 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Start Sprint 2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data Analytics
+Administrative Features
+Live Testing
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Analytics
+Administrative Features
+Live Testing
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data Analytics
+Administrative Features
+Live Testing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Submit Poster</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -190,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -199,37 +264,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -275,7 +309,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -293,10 +327,109 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -308,51 +441,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69572813-4710-4121-A781-57DA0B950BB7}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,43 +828,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>10</v>
+      <c r="E3" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="18">
         <v>43852</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>43859</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -733,24 +879,24 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43873</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9">
-        <v>43873</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -758,67 +904,83 @@
         <v>43880</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>43887</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>43894</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>43901</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+      <c r="D11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="1">
         <v>43908</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>43915</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>10</v>
       </c>
@@ -826,71 +988,59 @@
         <v>43922</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>43929</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>43936</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>43943</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13">
         <v>14</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="14">
         <v>43950</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <v>15</v>
-      </c>
-      <c r="C19" s="9">
-        <v>43957</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <v>16</v>
-      </c>
-      <c r="C20" s="5">
-        <v>43964</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="D18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
